--- a/切片.xlsx
+++ b/切片.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="16160"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2850,13 +2850,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -3109,11 +3102,14 @@
   <sheetPr/>
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AJ144"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A99" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.1909090909091" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
